--- a/data/最新舆情数据.xlsx
+++ b/data/最新舆情数据.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -448,31 +448,31 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>万科研选家到底怎么样</v>
+        <v>卫生间翻新之后，停不下来了……</v>
       </c>
       <c r="B2" t="str">
-        <v>线条小狗</v>
+        <v>研选家</v>
       </c>
       <c r="C2" t="str">
-        <v>2024-12-26</v>
+        <v>编辑于 昨天 23:35 广东</v>
       </c>
       <c r="D2" t="str">
-        <v>https://www.xiaohongshu.com/explore/676cd0f9000000000900ebe4?xsec_token=ABoZQp8D-Y8Ko4uypximeesRNKf98Ro90a9_wA8IbE8fY=&amp;xsec_source=</v>
+        <v>https://www.xiaohongshu.com/explore/67b899390000000029013e13?xsec_token=ABcM6SdDFDPiRhWhv7pGMksc2KT5VsVB3BBPYPr5rPqaA=&amp;xsec_source=</v>
       </c>
       <c r="E2" t="str">
-        <v>宝子们集合！！！ 这几天后台，私信炸了，越来越多和我一样受伤的宝子们的遭遇，真是离谱的千奇百怪 找了两个特别离谱的，大家自行观看。 真的很心疼万科业主， 被自己的万科物业卖到离谱的万科装修研选家 已经上船的宝子们，真的要打起12分的精神 该盯紧的，赶紧锁死， 别像我们这样，想后悔都来不及。 #装修 #我为消费者发声 #装修日记 #维护自己的利益 #保护消费者 #无良商家必须严惩 #没有金刚钻别揽瓷器活 #物种多样性鉴赏 #研选家 #万科</v>
+        <v>💦🌀用了很久的卫生间，想改头换面却不知道从哪儿下手…… ⛔自己弄不实际 ⛔请设计师施工队会不会太小题大做？仅仅一个卫生间，会好好做吗？ ✔️所有的问题，现在都有一键解决的办法了！从设计🔜拆除🔜装修🔜清运，不需要操一点心❗唯一的难题就是——那么多好看的卫生间，到底换成什么样呢？ ⭐研选家提供精选案例的同时，也接受个人定制，如果你有任何独特的想法，都请让我们来试试吧！ 🤜🤛 #治愈家的小毛病 #轻改造爸妈家 #旧房翻新 #卫生间装修 #卫生间 #老房翻新改造 #卫生间设计 #浴室装修灵感库 @薯队长</v>
       </c>
       <c r="F2" t="str">
-        <v>https://sns-webpic-qc.xhscdn.com/202502202209/bfdbbeed7de6a9e086e22aa673a1338c/1040g2sg31bruo44bgm805p5de1i7ol1h5molk60!nd_dft_wgth_webp_3</v>
+        <v>https://sns-webpic-qc.xhscdn.com/202502221356/ee4a071589e8f05aeb70e84f87349be1/1040g00831e5uub41gm605o398rr0bno9btpvlg8!nd_dft_wlteh_webp_3</v>
       </c>
       <c r="G2" t="str">
-        <v>共 10 条评论奶爸做家装叫研选的，美居的都快闪，一群打着KFS，WY背书的草台班子2024-12-2812线条小狗作者我看了都怕2024-12-28赞回复展开 1 条回复墨韵书画特别是上海研选家装修公司，都啃爹，01-06赞1线条小狗作者咋了01-06赞回复fxygr千万避雷，看下我的砌墙图你就明白了01-05赞1线条小狗作者太离谱了01-05赞回复wingwingwing666避雷 打去总部投诉吧01-141回复墨韵书画全网的宝子们，万科研选家装修公司就是坑人的大骗子，不仅坑客户，还坑工长，大家注意，全网转发，曝光他们丑恶嘴脸01-06赞1线条小狗作者细说电够01-06赞回复 - THE END -</v>
+        <v>这是一片荒地点击评论</v>
       </c>
       <c r="H2" t="str">
-        <v>负面</v>
+        <v>正面</v>
       </c>
       <c r="I2" t="str">
-        <v>内容中包含大量负面情感词汇如"受伤"、"离谱"、"心疼"、"后悔"、"无良商家"等，通过"物种多样性鉴赏"等反讽手法强化不满情绪。用户通过曝光装修问题、号召消费者警惕等方式，直接损害万科品牌信誉，可能引发消费者信任危机，符合负面舆情特征。</v>
+        <v>内容使用大量积极表情符号（💦🌀✔️⭐🤜🤛）和肯定性词汇（"一键解决"、"不需要操一点心"、"那么多好看的卫生间"），展现对研选家服务流程的认可。通过对比自装与专业服务的优劣，突出品牌解决方案的便捷性，结尾的品牌定制服务推荐进一步强化正面形象。</v>
       </c>
       <c r="J2" t="str">
         <v>没有找到关键词</v>
@@ -480,31 +480,31 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025的本命地毯，看一个爱一个</v>
+        <v>😎实习生的第一天 | 万物云研选家工作</v>
       </c>
       <c r="B3" t="str">
-        <v>研选家</v>
+        <v>猜猜</v>
       </c>
       <c r="C3" t="str">
-        <v>编辑于 2 天前 广东</v>
+        <v>昨天 14:27 湖北</v>
       </c>
       <c r="D3" t="str">
-        <v>https://www.xiaohongshu.com/explore/67b48714000000002901aee5?xsec_token=ABSl-l8bzHTYckMmhNrE02aqUoffqL4S0yfGqisecnjO0=&amp;xsec_source=</v>
+        <v>https://www.xiaohongshu.com/explore/67b81cd20000000006039f75?xsec_token=ABcM6SdDFDPiRhWhv7pGMksbCa6LEnlEcY1EwEAVzKv_E=&amp;xsec_source=</v>
       </c>
       <c r="E3" t="str">
-        <v>🟥没有什么是一块地毯解决不了的，不管是新装修的房子还是想要换个环境却不愿大动干戈的老房子，选一张新地毯，空间整个焕然一新！🌟 🈶几个注意事项一定要记住—— ♦️不要满铺！大面积的地毯毕竟没有地板瓷砖更耐脏，易打扫，容易滋生螨虫，藏污纳垢。引发鼻炎等问题。 ♦️不要过小！客厅中央地毯长度尺寸至少是茶几长度*1.2。 ♦️材质注意选择，纯羊毛，长绒，布面的不好打理，容易脏污；亚麻等不能暴晒；塑胶底容易释放甲醛；混纺的比较推荐，价格不能太低，地毯的品质决定了空间的气质。 ♦️色彩和纹样依据家装风格来定，可以跳脱，但不能过于喧宾夺主！ 🔥如果你家有漂亮的地毯，欢迎评论区尽情凡尔赛！！ #治愈家的小毛病 #地毯推荐 #客厅装修 #客厅设计 #地毯怎么选 #室内设计 @薯队长 @装修薯</v>
+        <v>✨今天是我在万物云研选家实习的第一天🧐。其实昨天已经入职适应了半天工作模式啦，所以今天算是完完整整体验了一把这里的工作流程和状态😃。 🚄现在我还在学校住，学校在江夏区，而工作地点在江汉区，早九晚六，两个小时的通勤距离真的有点远😭。今天差点没赶上高铁，还好前面是一个消防员👨‍🚒，沾了他的光，才让我有惊无险地赶上了，嘿嘿，还挺幸运的😉。 🌟现在来说说我工作的体验吧💕。 👉第一点，这里的工作氛围超级好👍。这的工作位置都不是很固定的，有位置就可以坐，大家都各司其职，互不干扰🤗，偶尔也会有工作上的交流🧐。虽然大家认识的时间不长，但是给我的第一印象真的很不错呢😎。在这样的氛围里工作，感觉效率都会提高不少😜。 👉第二点就是同事之间的相处非常融洽呀🤝。这里完全不是那种只知道埋头苦干、很沉闷的氛围😒。而是很轻松很融洽，不懂就问，还经常能听到欢声笑语😄。大家就像一个温暖的大家庭一样，这让我这个实习生一点也不觉得拘束，很快就融入进去了呢🥰。 👉最后一点，这里的工作环境也很棒🤩。每个人都很用心地维护办公环境🧼。中午休息去上厕所的时候，我刚好碰到店长姐姐蹲在卫生间门口，用纸巾把地上的灰尘垃圾拢起来，再丢到垃圾桶里🧺。她还关心我会不会穿得有点少了，哈哈😄，其实是因为早上来不及，落下了外套，不过确实也还好啦，让人心里暖暖的，大家人都好好😉。 💪我真的很喜欢这里的工作环境和氛围呢，加油，希望能学到更多的东西，让自己变得更优秀💖。 #实习生 #万物云研选家 #工作体验 #实习第一天打卡</v>
       </c>
       <c r="F3" t="str">
-        <v>https://sns-webpic-qc.xhscdn.com/202502202209/c64d1a4d952458faab7d2b393ee79e42/1040g2sg31e1vnfe210d05o398rr0bno98qp4s8g!nd_dft_wlteh_webp_3</v>
+        <v>https://sns-webpic-qc.xhscdn.com/202502221356/c676239239a1c3b9f8b52389fc5ee05c/1040g00831e5fod5cgu6g5ookaavjotoa20ajmno!nd_dft_wlteh_webp_3</v>
       </c>
       <c r="G3" t="str">
-        <v>这是一片荒地点击评论</v>
+        <v>共 4 条评论小红薯613E48C3加油 可爱的小伙伴！一起成长！昨天 21:57湖北赞1猜猜作者加油！✊今天 07:54湖北赞回复哒哒哒加油💪，万物会有很多可以让你学习的地方，一定要好好学习成长顶起一片天。昨天 21:52广东赞1猜猜作者谢谢你的鼓励！生活处处是学问，我会努力成为能独当一面的人！今天 07:56湖北赞回复 - THE END -</v>
       </c>
       <c r="H3" t="str">
         <v>正面</v>
       </c>
       <c r="I3" t="str">
-        <v>内容整体呈现建设性指导语气，使用🌟、🔥等积极表情符号增强正向情感。虽然包含注意事项，但核心是分享专业选购建议，结尾号召互动使用"欢迎尽情凡尔赛"等鼓励性表达，有利于提升家装话题的社区活跃度，对相关品牌有隐性推广作用。</v>
+        <v>全文使用高频次积极表情符号（✨😃👍🥰🤩）及情感强化词（"超级好"、"非常融洽"、"温暖的大家庭"），通过通勤插曲的戏剧化处理展现意外惊喜感。详细描述工作环境维护细节（店长清洁行为）和人文关怀，构建出专业且有温度的企业形象，实习生身份更增强叙述可信度。</v>
       </c>
       <c r="J3" t="str">
         <v>没有找到关键词</v>
@@ -512,31 +512,31 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>万科研选家有多渣</v>
+        <v>万科研选家到底怎么样</v>
       </c>
       <c r="B4" t="str">
         <v>线条小狗</v>
       </c>
       <c r="C4" t="str">
-        <v>2024-12-08</v>
+        <v>2024-12-26</v>
       </c>
       <c r="D4" t="str">
-        <v>https://www.xiaohongshu.com/explore/67558ea00000000002027738?xsec_token=ABaxJmPtrr-u9007XQFXwLLwZtElFSViNHz0uvrEs6UvU=&amp;xsec_source=</v>
+        <v>https://www.xiaohongshu.com/explore/676cd0f9000000000900ebe4?xsec_token=ABoZQp8D-Y8Ko4uypximeesfkj31WlwgGVNnE9H80ylcg=&amp;xsec_source=</v>
       </c>
       <c r="E4" t="str">
-        <v>自从上次发了，踩坑万科， 研选家的视频，后台炸了。 今天给大家上几张图。建议放大收看。 打从发现自家地砖像个鬼一样，立马找到了摸鱼项目经理，结果听他一顿扯野棉花， 也是，不知道他是眼瞎，还是尔康我看不见了， 能甩国标的甩国标， 能扯几几几公分的，扯几几几公分 最后他说了一句，我至今都难以忘记的话 ：野猪🐗(业主)美甲💅(每家)都这样。 笑死，美甲怎么我不知道，我指甲(自家)装什么得🉐️安咱的需求来。 结果又被上了一课。换的像个鬼一样。 就是，咋说呢，你们画歪果眉毛吗 并且，还给我立上了，及时响应积极处理问题的人设，成功洗白0作用挂机摸鱼不监管工地的事实。 个斑马，这个事情不用武汉话，该觉不 地暖，可是我装了地暖， 55555555555555 没办法，只能，找满级美缝，并且叠加了全屋调色套餐。 杀千刀，他那放着过年的水泥没扣，封泥面啥都有，结果美缝大师再用小火车🚄清缝的时候，瓷砖被水泥带下来 蹦边，啥意思呢，就好比，呃🤔 你们撕过腿毛没有 累了😭，姐妹们，四腿毛痛不痛我不知道，我真的很心痛💔， 只能说，看到万科，赶紧跑 毕竟别人努力的上线，是这个行业的下限 #瓷砖平整度 #墙砖 #贴砖 #装修 #装修日记 #武汉装修 #武汉装修公司 #研选家 #万科</v>
+        <v>宝子们集合！！！ 这几天后台，私信炸了，越来越多和我一样受伤的宝子们的遭遇，真是离谱的千奇百怪 找了两个特别离谱的，大家自行观看。 真的很心疼万科业主， 被自己的万科物业卖到离谱的万科装修研选家 已经上船的宝子们，真的要打起12分的精神 该盯紧的，赶紧锁死， 别像我们这样，想后悔都来不及。 #装修 #我为消费者发声 #装修日记 #维护自己的利益 #保护消费者 #无良商家必须严惩 #没有金刚钻别揽瓷器活 #物种多样性鉴赏 #研选家 #万科</v>
       </c>
       <c r="F4" t="str">
-        <v>https://sns-webpic-qc.xhscdn.com/202502202245/90e38efda9aecf12fe29d1071195e000/1040g2sg31b57su7l7m905p5de1i7ol1hmiqg4ro!nd_dft_wlteh_webp_3</v>
+        <v>https://sns-webpic-qc.xhscdn.com/202502221356/f3b7001b65d0e98fb6a838a87ba29827/1040g2sg31bruo44bgm805p5de1i7ol1h5molk60!nd_dft_wgth_webp_3</v>
       </c>
       <c r="G4" t="str">
-        <v>共 38 条评论研选家尊敬的客户您好，我们的客服人员已和您联系，但您一直未明确告知项目房号等信息，我们未能查实您所提供的内容来源。为更好的向您提供售后服务，麻烦您回复告知小客服您的相关订单信息~感谢您的支持。2024-12-12赞12线条小狗作者售后啥呢，天天跟我吵架，还撒泼打滚。没事过几天我给他打个码。你们自查一下，抓内鬼不是更刺激吗？2024-12-122回复展开 11 条回复武汉装修秦团长了解避坑2024-12-1417线条小狗作者给你们客服多发点，2024-12-23赞回复展开 6 条回复小红薯613E48C3地暖也是么？最近在考虑地暖，地暖有啥推荐的么？2024-12-1217线条小狗作者有呀2024-12-12赞回复展开 6 条回复fxygr同样踩雷，给我砌的墙01-0513线条小狗作者我的妈呀，都裂了01-05赞回复展开 2 条回复武汉美家乐美缝2024-12-0813线条小狗作者离谱不2024-12-08赞回复展开 2 条回复一只蛋挞我就住万科，越看越觉得离谱哦2024-12-23赞回复 - THE END -</v>
+        <v>共 10 条评论奶爸做家装叫研选的，美居的都快闪，一群打着KFS，WY背书的草台班子2024-12-2812线条小狗作者我看了都怕2024-12-28赞回复展开 1 条回复墨韵书画特别是上海研选家装修公司，都啃爹，01-06赞1线条小狗作者咋了01-06赞回复fxygr千万避雷，看下我的砌墙图你就明白了01-05赞1线条小狗作者太离谱了01-05赞回复wingwingwing666避雷 打去总部投诉吧01-141回复墨韵书画全网的宝子们，万科研选家装修公司就是坑人的大骗子，不仅坑客户，还坑工长，大家注意，全网转发，曝光他们丑恶嘴脸01-06赞1线条小狗作者细说电够01-06赞回复 - THE END -</v>
       </c>
       <c r="H4" t="str">
-        <v>正面</v>
+        <v>负面</v>
       </c>
       <c r="I4" t="str">
-        <v>分析过程出错，默认返回正面评价</v>
+        <v>使用警示性标题和危机性符号（❗），通过"炸了"、"受伤"、"离谱"等情绪化表述建立受害群体共鸣。"锁死"、"后悔都来不及"等警示用语配合#无良商家必须严惩等话题标签，形成对品牌服务质量的强烈质疑，可能引发消费者信任危机。</v>
       </c>
       <c r="J4" t="str">
         <v>没有找到关键词</v>
@@ -544,39 +544,71 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>木纹砖选错，全家人都会怪你</v>
+        <v>原来万科物业也做家装呀！</v>
       </c>
       <c r="B5" t="str">
-        <v>研选家</v>
+        <v>嘉嘉应子</v>
       </c>
       <c r="C5" t="str">
-        <v>2024-05-31</v>
+        <v>01-10</v>
       </c>
       <c r="D5" t="str">
-        <v>https://www.xiaohongshu.com/explore/66593ec10000000005004818?xsec_token=ABWbxr_LiP5su02sO5K-OzwuGTUuNtJObu0wCZlf8Hl1A=&amp;xsec_source=</v>
+        <v>https://www.xiaohongshu.com/explore/678100de00000000200289bc?xsec_token=AB9c6FUNufywUAj0DB_kkTM7aD-EY3EygWhoiZLysv9gM=&amp;xsec_source=</v>
       </c>
       <c r="E5" t="str">
-        <v>买木纹砖时，一定要做好功课，今天分享一些选购木纹砖的小技巧，帮你避免踩坑，轻松打造高级家居环境。 1. 买小纹理不买大纹理 🌳 大纹理的木纹砖虽然看起来有点酷，但实际使用中却显得很夸张，还容易藏污纳垢，清洁起来非常麻烦。小纹理的木纹砖不仅更美观，而且更实用，打扫卫生也更加方便。 ‌2. 买全瓷不买半瓷 🏡 - 半瓷：铺贴前需要充分泡水，使用普通的水泥沙浆便可铺贴。 - 全瓷：比半瓷墙砖更透亮，不需要泡水，必须使用瓷砖胶铺贴。 全瓷的木纹砖虽然铺贴起来稍复杂，但效果更好，更耐用。 3. 买直边不买圆边 📏 圆边木纹砖铺贴后接缝处会有明显的凹凸，不仅不好打理，还显得不高级。直边的木纹砖平整度好，铺贴效果佳，日常打理也更方便。 4. 买长条不买大片 📐 大片木纹砖缺乏细节，铺贴后视觉上显得比较廉价。如果客厅面积大于30㎡，建议选择200*1200的规格，人字铺效果非常好。如果面积较小，可以选150*800的规格。 5. 留缝做1.5-2mm 📏 留缝太宽的话，一眼就能看出是假木纹砖，显得很low。建议留缝在1.5~2mm之间，这样铺贴效果会更自然美观。 6. 买浅花纹不买深花纹 🎨 深颜色的木纹砖看久了容易显得杂乱，而且不耐看。尽量选择花纹少、颜色浅的木纹砖，铺贴效果会更加自然，看起来也更舒适。 7. 买哑光不买亮光 🌟 亮光木纹砖看起来很假，没有质感。哑光面的木纹砖质感更好，看起来也不会显得廉价，是更好的选择。 8. 买同色美缝不买异色 🎨 慎用金色或者颜色差异较大的美缝，否则结果可能会显得四不像。美缝颜色建议选择同色或者比木纹砖深一号的哑光美缝，环氧彩砂是不错的选择。 选择木纹砖时，一定要关注以上几点，才能避免踩坑，打造出理想中的家居效果。 #木纹砖 #装修知识 #装修干货 #木纹砖怎么选 #装修 #木地板 #研选家 @装修薯 @薯条小助手 @薯队长</v>
+        <v>作为5年的万科业主，现在才知道原来万科物业也有做设计装修的，叫做研选家！ 早知道就不找外面的装修公司了，刚装完就倒闭了，万科物业的起码物业会一直存在，不用担心售后。 有业主朋友装修过吗？</v>
       </c>
       <c r="F5" t="str">
-        <v>https://sns-webpic-qc.xhscdn.com/202502202245/779c03b5c7f7d6a60e22a85116a34e48/spectrum/1040g0k0313er1auph2005o398rr0bno9bjj211o!nd_dft_wlteh_webp_3</v>
+        <v>https://sns-webpic-qc.xhscdn.com/202502221356/c020c88d519c586536362dea8a0968c4/notes_pre_post/1040g3k831cfl8jlhh69g4bur6tn8m24o1osdbb0!nd_dft_wlteh_webp_3</v>
       </c>
       <c r="G5" t="str">
-        <v>这是一片荒地点击评论</v>
+        <v>共 8 条评论小透明这就不得不说在他们小区用研选家的好处了，可以占用走廊的公共面积，入户门外移增加一个3.4平玄关的面积，砸掉承重梁，扩大门洞，打掉承重墙扩大室内面积，打掉烟道扩大厨房面积，切掉飘窗增加卧室面积，反正只要你想，他就能实现01-20赞2每天都是周六打掉承重墙？？？7 天前广东赞回复展开 1 条回复Winner你应该庆幸你不知道01-15赞回复春晓2019年找他们装修的，五年后的售后还在做，还是免费。很不错。那会他们只给自己物业的业主装修房子，现在应该是包括非物业的房子装修也做。01-151回复YWQ做的东西都可以直接拆掉换新的，太垃圾了，不想脑溢血和心梗还是换换吧！01-11赞回复打工人这一点还是可以信任的，签合同。售后问题不用担心01-10赞回复🐟别了，到时候出现问题，就会说和物业不搭噶，叫你找谁装修的去找谁01-10赞回复 - THE END -</v>
       </c>
       <c r="H5" t="str">
         <v>正面</v>
       </c>
       <c r="I5" t="str">
-        <v>分析过程出错，默认返回正面评价</v>
+        <v>以业主身份进行经验对比，通过"早知道"的懊悔式表达强化品牌可靠性。"物业会一直存在"的售后保障承诺，精准抓住装修行业痛点。疑问句式结尾暗含推荐倾向，利用业主社群传播特性提升说服力。</v>
       </c>
       <c r="J5" t="str">
+        <v>没有找到关键词</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>活动</v>
+      </c>
+      <c r="B6" t="str">
+        <v>小糖氏</v>
+      </c>
+      <c r="C6" t="str">
+        <v>2024-12-28</v>
+      </c>
+      <c r="D6" t="str">
+        <v>https://www.xiaohongshu.com/explore/676f50f5000000001402120b?xsec_token=ABRUsr5PWdmgUtfUnd-bbtWDfq2XV7-6LXrPI_Hwty1Dw=&amp;xsec_source=</v>
+      </c>
+      <c r="E6" t="str">
+        <v>有小伙伴了解深圳万科，研选家设计岗怎么样嘛，谢谢啦，求分享</v>
+      </c>
+      <c r="F6" t="str">
+        <v>https://sns-webpic-qc.xhscdn.com/202502221356/6dfdef1f321daf0dc662be33694c9908/1040g2sg31bucs2ij08c05oag2frgkvd8ap78oa0!nd_dft_wlteh_webp_3</v>
+      </c>
+      <c r="G6" t="str">
+        <v>共 4 条评论小糖氏作者能否具体说说呢2024-12-31赞回复还我星冰乐别去，会被压榨2024-12-31赞1ZZOO怎么被压榨02-09湖北赞回复嗯恩嗯恩你去了不，咋样啊02-12湖北赞回复 - THE END -</v>
+      </c>
+      <c r="H6" t="str">
+        <v>正面</v>
+      </c>
+      <c r="I6" t="str">
+        <v>中性询问未含明显情感倾向，但根据平台特性（职场信息咨询）及话题标签分析，潜在关注者可能带有求职期待。按照规则要求，中性内容默认判定为正面，但需注意实际可能存在隐性负面需后续跟踪。</v>
+      </c>
+      <c r="J6" t="str">
         <v>没有找到关键词</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J6"/>
   </ignoredErrors>
 </worksheet>
 </file>